--- a/AngularFrontEnd/app/docs/VEHICULOS_TABLAS_V1.xlsx
+++ b/AngularFrontEnd/app/docs/VEHICULOS_TABLAS_V1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.careaga\Desktop\fomularios_IGOV_OK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ana.vargas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="ActivosFijos" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,34 +196,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -235,6 +207,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,27 +584,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -616,12 +624,12 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -635,219 +643,354 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="4">
         <f>COUNT(B12:B319)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10"/>
       <c r="C10" s="1"/>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="str">
+      <c r="B12" s="23" t="str">
         <f>IF(C12&lt;&gt;"",ROW(C1),"")</f>
         <v/>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="str">
-        <f t="shared" ref="B13:B31" si="0">IF(C13&lt;&gt;"",ROW(C2),"")</f>
-        <v/>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="23" t="str">
+        <f t="shared" ref="B13:B76" si="0">IF(C13&lt;&gt;"",ROW(C2),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="str">
+      <c r="B16" s="23" t="str">
         <f>IF(C16&lt;&gt;"",ROW(A5),"")</f>
         <v/>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="23" t="str">
         <f>IF(C18&lt;&gt;"",ROW(A7),"")</f>
         <v/>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="str">
+      <c r="B20" s="23" t="str">
         <f>IF(C20&lt;&gt;"",ROW(A9),"")</f>
         <v/>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j8Y4IDmjCtOzFVvC/3yzw40rgtE+u5qRtElISh6k6S3zo6gaglZrmSlEoESexoFMY1OrIAjqXJxji8HLZMcWKQ==" saltValue="JMapCNSxNQmtXpNm6pzK0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AC6aX7G1xcJTG+3Zqc09S8U2NJtQ86hHrCVBBhbJOFWJOP4tjES7+nC5GrP3IsT/OxqAoc+cpxbC0TOHBHEatA==" saltValue="VKr3RRKR4vLMZ44YFQsvHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A5:C5"/>
@@ -863,10 +1006,10 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="COLUMNA GESTIONES A LIQUIDAR " prompt="2001,2002,2003....." sqref="D11"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="COLUMNA: NOMBRE DE LA EMPRESA" prompt="REGISTRAR SOLO EN MAYUSCULAS" sqref="A7"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14 D23">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14 D23 D36">
       <formula1>COUNTIF($A$2:$A$15,A2)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="COLUMNA Nº DE PLACA" error="NO SE ADMITEN REPETIR LA MISMA PLACA" sqref="C12:C31">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="COLUMNA Nº DE PLACA" error="NO SE ADMITEN REPETIR LA MISMA PLACA" sqref="C12:C47">
       <formula1>COUNTIF($C$12:$C$31,C12)=1</formula1>
     </dataValidation>
   </dataValidations>
